--- a/data/trans_dic/P2403-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2403-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2403-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2403-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,0; 0,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>0,88; 3,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>1,98; 5,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>0; 0,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>0,66; 3,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>1,21; 4,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,0; 0,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>1,0; 2,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,95; 4,43</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,42%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>0,37; 2,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>2,94; 6,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>3,07; 6,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>0,0; 1,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0,33; 2,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>2,77; 6,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,3; 1,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>1,9; 3,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>3,28; 5,68</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,15%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,99%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>0,0; 0,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>2,01; 4,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>1,83; 4,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0,27; 2,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,32; 2,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,0; 0,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,34; 2,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,33; 2,91</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,86%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,56%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>0,2; 1,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>2,12; 5,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,64; 4,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,37</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,7; 2,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>1,19; 3,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,1; 1,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,66; 3,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,74; 3,73</t>
         </is>
       </c>
     </row>
@@ -1077,42 +1077,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,2%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>0; 0,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,34</t>
+          <t>1,26; 4,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,22; 2,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>0; 0,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>0,37; 2,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0; 0,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>0,61; 2,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,46; 2,01</t>
         </is>
       </c>
     </row>
@@ -1192,37 +1192,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,2%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>0; 0,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,14; 1,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>0; 0,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,06; 0,57</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,2; 0,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,16; 3,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,06; 3,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,0; 0,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,54; 1,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,27; 2,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>0,13; 0,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>1,4; 2,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,82; 2,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2403-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2403-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,28%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,26</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>0; 0,56</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,54</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0; 0,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,57</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>0,12%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0; 0,87</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,86</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,69</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,66</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,55</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,64</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,38</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,34</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,06%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,2; 0,67</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>2,16; 3,36</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2,06; 3,14</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>0,0; 0,23</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0,54; 1,21</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>1,27; 2,15</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0,13; 0,37</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>1,4; 2,05</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>1,82; 2,52</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
